--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\BE PROJECT\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F03B368-2149-4020-8BDA-66F6AC6312F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9282ABA-7B84-4148-A3F5-858E915B634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>The wages of 10 workers for a six-day week is $ 1200. What are the one day’s wages of 4 workers?</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>whole</t>
   </si>
   <si>
     <t xml:space="preserve">A clock strikes once at 1 o’clock, twice at 2 o’clock, thrice at 3 o’clock and so on. How many times will it strike in 24 hours? </t>
@@ -198,11 +195,20 @@
   <si>
     <t xml:space="preserve">Complete the following sequence. 2, 3, 5, 9, _____, 33 </t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,10 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1065,8 +1073,8 @@
       <c r="D1">
         <v>80</v>
       </c>
-      <c r="F1">
-        <v>80</v>
+      <c r="F1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,8 +1090,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,12 +1108,12 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>78</v>
@@ -1116,30 +1124,30 @@
       <c r="D4">
         <v>156</v>
       </c>
-      <c r="F4">
-        <v>156</v>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1150,13 +1158,13 @@
       <c r="D6">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>15</v>
+      <c r="F6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1167,13 +1175,13 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>0.64236111111111105</v>
@@ -1184,13 +1192,13 @@
       <c r="D8" s="1">
         <v>0.12847222222222224</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.12847222222222224</v>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -1201,13 +1209,13 @@
       <c r="D9">
         <v>62</v>
       </c>
-      <c r="F9">
-        <v>60</v>
+      <c r="F9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1218,13 +1226,13 @@
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -1235,13 +1243,13 @@
       <c r="D11">
         <v>125</v>
       </c>
-      <c r="F11">
-        <v>100</v>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1252,13 +1260,13 @@
       <c r="D12">
         <v>25</v>
       </c>
-      <c r="F12">
-        <v>10</v>
+      <c r="F12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>0.5854166666666667</v>
@@ -1269,13 +1277,13 @@
       <c r="D13" s="1">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="F13" s="1">
-        <v>8.4027777777777771E-2</v>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0.06</v>
@@ -1286,13 +1294,13 @@
       <c r="D14" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F14" s="2">
-        <v>6.0000000000000002E-5</v>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -1303,13 +1311,13 @@
       <c r="D15">
         <v>28</v>
       </c>
-      <c r="F15">
-        <v>32</v>
+      <c r="F15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1320,13 +1328,13 @@
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="F16">
-        <v>7</v>
+      <c r="F16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1337,13 +1345,13 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>4</v>
+      <c r="F17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>0.8</v>
@@ -1354,13 +1362,13 @@
       <c r="D18" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F18" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1371,30 +1379,30 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>3</v>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1405,13 +1413,13 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="F21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1422,13 +1430,13 @@
       <c r="D22">
         <v>16</v>
       </c>
-      <c r="F22">
-        <v>16</v>
+      <c r="F22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1200</v>
@@ -1439,13 +1447,13 @@
       <c r="D23">
         <v>1800</v>
       </c>
-      <c r="F23">
-        <v>1200</v>
+      <c r="F23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>1090</v>
@@ -1456,13 +1464,13 @@
       <c r="D24">
         <v>1224</v>
       </c>
-      <c r="F24">
-        <v>1224</v>
+      <c r="F24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -1473,13 +1481,13 @@
       <c r="D25">
         <v>15</v>
       </c>
-      <c r="F25">
-        <v>17</v>
+      <c r="F25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>40</v>
@@ -1490,13 +1498,13 @@
       <c r="D26">
         <v>60</v>
       </c>
-      <c r="F26">
-        <v>40</v>
+      <c r="F26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>852</v>
@@ -1507,13 +1515,13 @@
       <c r="D27">
         <v>568</v>
       </c>
-      <c r="F27">
-        <v>852</v>
+      <c r="F27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1524,13 +1532,13 @@
       <c r="D28">
         <v>75</v>
       </c>
-      <c r="F28">
-        <v>25</v>
+      <c r="F28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>45</v>
@@ -1541,30 +1549,30 @@
       <c r="D29">
         <v>40</v>
       </c>
-      <c r="F29">
-        <v>40</v>
+      <c r="F29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3">
         <v>0.66720000000000002</v>
@@ -1575,47 +1583,47 @@
       <c r="D31" s="3">
         <v>1.0589999999999999</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
+      <c r="F31" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>125</v>
@@ -1626,30 +1634,30 @@
       <c r="D34">
         <v>50</v>
       </c>
-      <c r="F34">
-        <v>125</v>
+      <c r="F34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -1660,8 +1668,8 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="F36">
-        <v>17</v>
+      <c r="F36" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\BE PROJECT\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9282ABA-7B84-4148-A3F5-858E915B634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261A328-E2D7-47A0-AEBC-F496069E3676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepanjaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepanjaya\Desktop\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B9A56-785E-49CC-92FD-F94B0A8B89F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED926F6-D7AE-4953-8B34-19942A3FF512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1057,7 @@
     <col min="1" max="1" width="166.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1073,11 @@
       <c r="F1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1090,8 +1093,11 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1107,8 +1113,11 @@
       <c r="F3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1124,8 +1133,11 @@
       <c r="F4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1153,11 @@
       <c r="F5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1173,11 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1193,11 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1233,11 @@
       <c r="F9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1226,8 +1253,11 @@
       <c r="F10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1243,8 +1273,11 @@
       <c r="F11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1260,8 +1293,11 @@
       <c r="F12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1277,8 +1313,11 @@
       <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1294,8 +1333,11 @@
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1311,8 +1353,11 @@
       <c r="F15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1328,8 +1373,11 @@
       <c r="F16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1345,8 +1393,11 @@
       <c r="F17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1362,8 +1413,11 @@
       <c r="F18" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -1379,8 +1433,11 @@
       <c r="F19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1396,8 +1453,11 @@
       <c r="F20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1413,8 +1473,11 @@
       <c r="F21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1430,8 +1493,11 @@
       <c r="F22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1447,8 +1513,11 @@
       <c r="F23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1464,8 +1533,11 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1481,8 +1553,11 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1498,8 +1573,11 @@
       <c r="F26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1515,8 +1593,11 @@
       <c r="F27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1532,8 +1613,11 @@
       <c r="F28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1549,8 +1633,11 @@
       <c r="F29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1566,8 +1653,11 @@
       <c r="F30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1583,8 +1673,11 @@
       <c r="F31" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1600,8 +1693,11 @@
       <c r="F32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1617,8 +1713,11 @@
       <c r="F33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1634,8 +1733,11 @@
       <c r="F34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1651,8 +1753,11 @@
       <c r="F35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1667,6 +1772,9 @@
       </c>
       <c r="F36" t="s">
         <v>58</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\BE PROJECT\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261A328-E2D7-47A0-AEBC-F496069E3676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99CACA-D2CD-4AC5-ACA6-8289D1DEFFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,13 +1051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.140625" customWidth="1"/>
+    <col min="1" max="1" width="118.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepanjaya\Desktop\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED926F6-D7AE-4953-8B34-19942A3FF512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A12C7-699A-4A1F-B56B-42F699E1F981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1074,7 @@
         <v>56</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>58</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\BE PROJECT\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99CACA-D2CD-4AC5-ACA6-8289D1DEFFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E654866-0281-4278-BDEF-989096BECC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="591">
   <si>
     <t>The wages of 10 workers for a six-day week is $ 1200. What are the one day’s wages of 4 workers?</t>
   </si>
@@ -58,12 +58,6 @@
     <t xml:space="preserve">Which of the following numbers gives 240 when added to its own square? </t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation of 8^(3) × 8^(2) × 8^(-5) is </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The simplest form of 1.5: 2.5 is </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fill in the blank: 4, 6, 12, 14, 28, 30,___. </t>
   </si>
   <si>
@@ -74,12 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">A is two years older than B who is twice old as C. If total ages of A, B, and C be 27, how old is B? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a:b:c=3:4:7, then ratio (a+b+c):c is </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 x 0.02 = </t>
   </si>
   <si>
     <t xml:space="preserve">In a class of 40 students, 20% are girls. How many boys are there in the class? </t>
@@ -100,18 +88,6 @@
 you had at least a pair?</t>
   </si>
   <si>
-    <t xml:space="preserve">The annual income of A is 10% more than of B whereas the income of B is 20% more than that of C. If the monthly income of C is $ 2000 then what is the sum of monthly incomes of A, B, and C? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 6,872 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 7,046 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 7,040 </t>
-  </si>
-  <si>
     <t xml:space="preserve">If 9999 = 4, 8888 = 8, 1816 = 6, 1212 = 0, then 1919 =? </t>
   </si>
   <si>
@@ -203,13 +179,1636 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>The blue colour of the clear sky is due to</t>
+  </si>
+  <si>
+    <t>Diffraction of light</t>
+  </si>
+  <si>
+    <t>Dispersion of light</t>
+  </si>
+  <si>
+    <t>Reflection of light</t>
+  </si>
+  <si>
+    <t>Which one of the following types of waves are used in a night vision apparatus?</t>
+  </si>
+  <si>
+    <t>Radio waves</t>
+  </si>
+  <si>
+    <t>Microwaves</t>
+  </si>
+  <si>
+    <t>Infra-red waves</t>
+  </si>
+  <si>
+    <t>As you go down into a well, your weight</t>
+  </si>
+  <si>
+    <t>increases slightly</t>
+  </si>
+  <si>
+    <t>decreases slightly</t>
+  </si>
+  <si>
+    <t>remains exactly the same</t>
+  </si>
+  <si>
+    <t>Which of the following is used in pencils?</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Phosphorous</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>The weight of an object will be minimum when it is placed at ?</t>
+  </si>
+  <si>
+    <t>The South Pole</t>
+  </si>
+  <si>
+    <t>The Equator</t>
+  </si>
+  <si>
+    <t>The center of the Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In fireworks, the green flame is produced because of 
+</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Barium</t>
+  </si>
+  <si>
+    <t>What does airbag, used for safety of car driver, contain?</t>
+  </si>
+  <si>
+    <t>Sodium bicarbonate</t>
+  </si>
+  <si>
+    <t>Sodium azide</t>
+  </si>
+  <si>
+    <t>Sodium nitrite</t>
+  </si>
+  <si>
+    <t>Which one of the following types of laser is used in laser printers?</t>
+  </si>
+  <si>
+    <t>Semiconductor laser</t>
+  </si>
+  <si>
+    <t>Dye laser</t>
+  </si>
+  <si>
+    <t>Gas laser</t>
+  </si>
+  <si>
+    <t>Which of the following parts of the sun is easily visible only during a total solar eclipse?</t>
+  </si>
+  <si>
+    <t>photosphere</t>
+  </si>
+  <si>
+    <t>sunspots</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>Which of the following has got more heat capacity?</t>
+  </si>
+  <si>
+    <t>Iron piece</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Gold piece</t>
+  </si>
+  <si>
+    <t>The Ozone Layer restricts from</t>
+  </si>
+  <si>
+    <t>Infrared Rays</t>
+  </si>
+  <si>
+    <t>Ultraviolet Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+When a gas is turned into a liquid, the process is called</t>
+  </si>
+  <si>
+    <t>condensation</t>
+  </si>
+  <si>
+    <t>evaporation</t>
+  </si>
+  <si>
+    <t>deposition</t>
+  </si>
+  <si>
+    <t>Which of the following plants is not capable of manufacturing own food?</t>
+  </si>
+  <si>
+    <t>Algae</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>The filament of an electric bulb is made of</t>
+  </si>
+  <si>
+    <t>tungsten</t>
+  </si>
+  <si>
+    <t>nichrome</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>What about Earth allows it to maintain bodies of water?</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>tides</t>
+  </si>
+  <si>
+    <t>moderate tempatures</t>
+  </si>
+  <si>
+    <t>The theory which advocates that living beings can arise only from other living beings is termed</t>
+  </si>
+  <si>
+    <t>Bio-genesis</t>
+  </si>
+  <si>
+    <t>Abiogenesis</t>
+  </si>
+  <si>
+    <t>Catastrophism</t>
+  </si>
+  <si>
+    <t>What color does yellow and green make?</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Ocean mist</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Development expenditure of the Central government does not include</t>
+  </si>
+  <si>
+    <t>defence expenditure</t>
+  </si>
+  <si>
+    <t>expenditure on economic services</t>
+  </si>
+  <si>
+    <t>grant to states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ICICI is the name of a</t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>corporation</t>
+  </si>
+  <si>
+    <t>financial institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gilt-edged market means</t>
+  </si>
+  <si>
+    <t>bullion market</t>
+  </si>
+  <si>
+    <t>market of government securities</t>
+  </si>
+  <si>
+    <t>market of guns</t>
+  </si>
+  <si>
+    <t>Dalton’s name is associated with which of the following terms?</t>
+  </si>
+  <si>
+    <t>Electron</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Which among the following elements are generally find in free state?</t>
+  </si>
+  <si>
+    <t>Group 11 elements</t>
+  </si>
+  <si>
+    <t>Group 12 elements</t>
+  </si>
+  <si>
+    <t>Group 13 elements</t>
+  </si>
+  <si>
+    <t>Which gas is used in making of Vanaspati ghee from vegetable oils?</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>“Oil of mirbane” is the most common name of which among the following?</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Phenolphthalein</t>
+  </si>
+  <si>
+    <t>Nitrobenzene</t>
+  </si>
+  <si>
+    <t>PVC is a polymer of ?</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>Carnotite is a mineral of which among the following metals?</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Which among following is also known as white gold?</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Which among the following element is an essential constituent of acids?</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Which of the following chemicals is also known as "Vitriol of clay”?</t>
+  </si>
+  <si>
+    <t>Aluminium sulphate</t>
+  </si>
+  <si>
+    <t>Sodium silicate</t>
+  </si>
+  <si>
+    <t>Zinc sulphate</t>
+  </si>
+  <si>
+    <t>What is the atomic number of Barium?</t>
+  </si>
+  <si>
+    <t>What is the half life of the longest lived isotope of Francium?</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>21 minute</t>
+  </si>
+  <si>
+    <t>21 hours</t>
+  </si>
+  <si>
+    <t>Which of these is NOT a compound of carbon?</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Caustic Soda</t>
+  </si>
+  <si>
+    <t>Which of the following metal is the main constituent in Pewter alloy?</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Which of these metals is used as a reducing agent in the Gold Schmidt thermite process?</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Which of the following group of elements contain the noble gases?</t>
+  </si>
+  <si>
+    <t>s-block</t>
+  </si>
+  <si>
+    <t>p-block</t>
+  </si>
+  <si>
+    <t>d-block</t>
+  </si>
+  <si>
+    <t>In which of the following groups is Gold placed in the modern periodic table?</t>
+  </si>
+  <si>
+    <t>Which of these hybridization is found in Phosphorus pentachloride molecule?</t>
+  </si>
+  <si>
+    <t>sp2</t>
+  </si>
+  <si>
+    <t>sp3</t>
+  </si>
+  <si>
+    <t>sp2d</t>
+  </si>
+  <si>
+    <t>Which of the following compounds can be made by blowing ozone at dry ice?</t>
+  </si>
+  <si>
+    <t>Carbonic acid</t>
+  </si>
+  <si>
+    <t>Carbon dioxide</t>
+  </si>
+  <si>
+    <t>Carbon trioxide</t>
+  </si>
+  <si>
+    <t>What is the main constituent of Bio gas?</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Ethyne</t>
+  </si>
+  <si>
+    <t>What is the bond length in C=C bond?</t>
+  </si>
+  <si>
+    <t>156 pm</t>
+  </si>
+  <si>
+    <t>148 pm</t>
+  </si>
+  <si>
+    <t>134 pm</t>
+  </si>
+  <si>
+    <t>Which of these is not an addition polymer?</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>Nylon 66</t>
+  </si>
+  <si>
+    <t>Polypropylene</t>
+  </si>
+  <si>
+    <t>What amount of carbon dioxide is present in earth’s atmosphere?</t>
+  </si>
+  <si>
+    <t>Which of the following is formed when an acid reacts with an alcohol?</t>
+  </si>
+  <si>
+    <t>Ketones</t>
+  </si>
+  <si>
+    <t>Esters</t>
+  </si>
+  <si>
+    <t>Aldehydes</t>
+  </si>
+  <si>
+    <t>What is the monomer unit of Teflon?</t>
+  </si>
+  <si>
+    <t>Acetylene</t>
+  </si>
+  <si>
+    <t>terafluoroethylene</t>
+  </si>
+  <si>
+    <t>neoprene</t>
+  </si>
+  <si>
+    <t>Which of these is a condensation polymer of ethylene glycol and terphthallic acid?</t>
+  </si>
+  <si>
+    <t>Polystyrene</t>
+  </si>
+  <si>
+    <t>Terylene</t>
+  </si>
+  <si>
+    <t>Nylon-6</t>
+  </si>
+  <si>
+    <t>Which metal has the highest melting point among all metals?</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>Ruthenium</t>
+  </si>
+  <si>
+    <t>Which of these non-metals is commonly used in fire-crackers?</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Sulphur</t>
+  </si>
+  <si>
+    <t>Which of these chemicals is used to dissolve the soap to make a transparent soap?</t>
+  </si>
+  <si>
+    <t>Ethanoic acid</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Which one of the following is not a Type of coal?</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Siderite</t>
+  </si>
+  <si>
+    <t>Anthracite</t>
+  </si>
+  <si>
+    <t>Which element helped James Chadwick to discover Neutron?</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>Which of the following gases helps in bread/cake fermentation so as to make it soft and spongy</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>Constitution of India guarantees which of the following to the states of India?</t>
+  </si>
+  <si>
+    <t>Territorial Integrity</t>
+  </si>
+  <si>
+    <t>Sovereignty</t>
+  </si>
+  <si>
+    <t>None of them</t>
+  </si>
+  <si>
+    <t>The constitutional position of President of India is most closely similar to __:</t>
+  </si>
+  <si>
+    <t>British Monarch</t>
+  </si>
+  <si>
+    <t>US President</t>
+  </si>
+  <si>
+    <t>Russian President</t>
+  </si>
+  <si>
+    <t>What is the number of Schedules in Constitution of India?</t>
+  </si>
+  <si>
+    <t>How many members can be nominated by the president to the Rajya Sabha &amp; Lok Sabha Respectively</t>
+  </si>
+  <si>
+    <t>12 &amp; 0</t>
+  </si>
+  <si>
+    <t>10 &amp; 2</t>
+  </si>
+  <si>
+    <t>10 &amp; 0</t>
+  </si>
+  <si>
+    <t>Which of the following is the largest Lok Sabha constituency of India in terms of Area?</t>
+  </si>
+  <si>
+    <t>Arunachal West</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Barmer</t>
+  </si>
+  <si>
+    <t>The power to declare an area as “Scheduled Area” lies with the</t>
+  </si>
+  <si>
+    <t>Legislative Assembly of a state</t>
+  </si>
+  <si>
+    <t>Parliament</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Who was elected as the permanent chairman of Constituent Assembly?</t>
+  </si>
+  <si>
+    <t>DR. B. R. Ambedkar</t>
+  </si>
+  <si>
+    <t>Dr. Rajendra Prasad</t>
+  </si>
+  <si>
+    <t>Dr. Sachchidanand Sinha</t>
+  </si>
+  <si>
+    <t>Who said that – India is an indestructible Union of destructible states?</t>
+  </si>
+  <si>
+    <t>Jawaharlal Nehru</t>
+  </si>
+  <si>
+    <t>DR.B.R.Ambedkar</t>
+  </si>
+  <si>
+    <t>B N Rau</t>
+  </si>
+  <si>
+    <t>Which article endeavors to separate the judiciary from the executive?</t>
+  </si>
+  <si>
+    <t>Article 49</t>
+  </si>
+  <si>
+    <t>Article 39</t>
+  </si>
+  <si>
+    <t>Article 50</t>
+  </si>
+  <si>
+    <t>Which of the following countries follow federal model of government?</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Where did the concept of judicial activism originate?</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Who is the chairman of Business Advisory Committee in the State Legislature?</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Chairman</t>
+  </si>
+  <si>
+    <t>Chief Minister</t>
+  </si>
+  <si>
+    <t>Who is authorized to extend the jurisdiction of a High Court?</t>
+  </si>
+  <si>
+    <t>Supreme Court</t>
+  </si>
+  <si>
+    <t>What is the tenure of a judge of a high court in India?</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>35 years</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>In which year was the Appellate Tribunal for Electricity created?</t>
+  </si>
+  <si>
+    <t>Who appoints the Comptroller and Auditor General of India (CAG)?</t>
+  </si>
+  <si>
+    <t>Vice-President</t>
+  </si>
+  <si>
+    <t>Prime Minister</t>
+  </si>
+  <si>
+    <t>Which of the following corporation is totally subjected to private audit?</t>
+  </si>
+  <si>
+    <t>Indian Airlines 
+Corporation</t>
+  </si>
+  <si>
+    <t>Reserve Bank of India</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>The advocate general of state submits his resignation to which of the following?</t>
+  </si>
+  <si>
+    <t>Governor</t>
+  </si>
+  <si>
+    <t>Where is the headquarters of Development Monitoring and Evaluation Office (DMEO)?</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Which of the following are regional training centres of CBI?</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>Which of the following states have upalokayukta?</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Environment Protection Act, 1986 consists of how many sections?</t>
+  </si>
+  <si>
+    <t>Which of the following is not used in the physics</t>
+  </si>
+  <si>
+    <t>Stock value</t>
+  </si>
+  <si>
+    <t>latent heat</t>
+  </si>
+  <si>
+    <t>Nuclear fusion</t>
+  </si>
+  <si>
+    <t>boiling point of water depends upon the</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>atmospheric pressure</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>Which of the following is not a nuclear power center</t>
+  </si>
+  <si>
+    <t>Narora</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Chamera</t>
+  </si>
+  <si>
+    <t>FFC stands for</t>
+  </si>
+  <si>
+    <t>Federation of Football Council</t>
+  </si>
+  <si>
+    <t>Film Finance Corporation</t>
+  </si>
+  <si>
+    <t>Foreign Finance Corporation</t>
+  </si>
+  <si>
+    <t>Fastest shorthand writer was</t>
+  </si>
+  <si>
+    <t>Dr. G. D. Bist</t>
+  </si>
+  <si>
+    <t>J.M. Tagore</t>
+  </si>
+  <si>
+    <t>J.R.D. Tata</t>
+  </si>
+  <si>
+    <t>Golf player Vijay Singh belongs to which country?</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Garampani sanctuary is located at</t>
+  </si>
+  <si>
+    <t>Gangtok, Sikkim</t>
+  </si>
+  <si>
+    <t>Kohima, Nagaland</t>
+  </si>
+  <si>
+    <t>Diphu, Assam</t>
+  </si>
+  <si>
+    <t>During World War II, when did Germany attack France?</t>
+  </si>
+  <si>
+    <t>Where can Coral reefs be found in India?</t>
+  </si>
+  <si>
+    <t>The Malabar Coast</t>
+  </si>
+  <si>
+    <t>Rameshwaram</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>Which of the following Company buy eBay’s Indian operation?</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>PayTM</t>
+  </si>
+  <si>
+    <t>The unit of electrical resistance of a conductor is—</t>
+  </si>
+  <si>
+    <t>volt</t>
+  </si>
+  <si>
+    <t>ampere</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>In binary code, the number 7 is written by-</t>
+  </si>
+  <si>
+    <t>........ is the first woman to head a public sector bank.</t>
+  </si>
+  <si>
+    <t>Arundhati Bhattacharya</t>
+  </si>
+  <si>
+    <t>Shikha Sharma</t>
+  </si>
+  <si>
+    <t>Chanda Kochar</t>
+  </si>
+  <si>
+    <t>What is the name of Indira Gandhi's Samadhi?</t>
+  </si>
+  <si>
+    <t>Shanti Ghat</t>
+  </si>
+  <si>
+    <t>Shakti Sthal</t>
+  </si>
+  <si>
+    <t>Shanti Van</t>
+  </si>
+  <si>
+    <t>Organization related to 'Red Data Book' or 'Red List' is -</t>
+  </si>
+  <si>
+    <t>U.T.E.S.</t>
+  </si>
+  <si>
+    <t>I.U.C.N.</t>
+  </si>
+  <si>
+    <t>I.B.W.C.</t>
+  </si>
+  <si>
+    <t>In which union territory is the Sparrow portal launched?</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar</t>
+  </si>
+  <si>
+    <t>Jammu Kashmir</t>
+  </si>
+  <si>
+    <t>Find the average of 1950, 1952, 1953, 1954, 1961.</t>
+  </si>
+  <si>
+    <t>Who has been named as acting Central Vigilance Commissioner</t>
+  </si>
+  <si>
+    <t>Alok Verma</t>
+  </si>
+  <si>
+    <t>Dineshwar Sharma</t>
+  </si>
+  <si>
+    <t>Sharad Kumar</t>
+  </si>
+  <si>
+    <t>Which of the following has the highest memory requirement?</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Where is a new object allocated memory?</t>
+  </si>
+  <si>
+    <t>Young space</t>
+  </si>
+  <si>
+    <t>Old space</t>
+  </si>
+  <si>
+    <t>Which of the following is a garbage collection technique?</t>
+  </si>
+  <si>
+    <t>Cleanup model</t>
+  </si>
+  <si>
+    <t>Mark and sweep mode</t>
+  </si>
+  <si>
+    <t>Space management model</t>
+  </si>
+  <si>
+    <t>Which of the below is not a Java Profiler?</t>
+  </si>
+  <si>
+    <t>JConsole</t>
+  </si>
+  <si>
+    <t>JProfiler</t>
+  </si>
+  <si>
+    <t>Which of the below is not a memory leak solution?</t>
+  </si>
+  <si>
+    <t>Code changes</t>
+  </si>
+  <si>
+    <t>JVM parameter tuning</t>
+  </si>
+  <si>
+    <t>Process restart</t>
+  </si>
+  <si>
+    <t>Which of these can be overloaded?</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>All of the mentioned</t>
+  </si>
+  <si>
+    <t>Which of these access specifiers must be used for main() method?</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>Which of these is used to access a member of class before object of that class is created?</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Which of these is used as a default for a member of a class if no access specifier is used for it?</t>
+  </si>
+  <si>
+    <t>public, within its own package</t>
+  </si>
+  <si>
+    <t>Arrays in Java are implemented as?</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>none of the mentioned</t>
+  </si>
+  <si>
+    <t>Which of these cannot be declared static?</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Which of these methods must be made static?</t>
+  </si>
+  <si>
+    <t>main()</t>
+  </si>
+  <si>
+    <t>delete()</t>
+  </si>
+  <si>
+    <t>finalize()</t>
+  </si>
+  <si>
+    <t>String in Java is a?</t>
+  </si>
+  <si>
+    <t>character array</t>
+  </si>
+  <si>
+    <t>Which of these method of String class is used to obtain character at specified index?</t>
+  </si>
+  <si>
+    <t>Charat()</t>
+  </si>
+  <si>
+    <t>charat()</t>
+  </si>
+  <si>
+    <t>charAt()</t>
+  </si>
+  <si>
+    <t>Which of these keywords is used to refer to member of base class from a subclass?</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>Which of these method of String class can be used to test to strings for equality?</t>
+  </si>
+  <si>
+    <t>isequals()</t>
+  </si>
+  <si>
+    <t>equal()</t>
+  </si>
+  <si>
+    <t>equals()</t>
+  </si>
+  <si>
+    <t>Which of the following statements are incorrect?</t>
+  </si>
+  <si>
+    <t>String is a class</t>
+  </si>
+  <si>
+    <t>Strings in java are mutable</t>
+  </si>
+  <si>
+    <t>Every string is an object of class String</t>
+  </si>
+  <si>
+    <t>Which of these can be used to differentiate two or more methods having the same name?</t>
+  </si>
+  <si>
+    <t>Number of parameters</t>
+  </si>
+  <si>
+    <t>Return type of method</t>
+  </si>
+  <si>
+    <t>Which of these data type can be used for a method having a return statement in it?</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>both a and b</t>
+  </si>
+  <si>
+    <t>Which of this method is given parameter via command line arguments?</t>
+  </si>
+  <si>
+    <t>recursive() method</t>
+  </si>
+  <si>
+    <t>Any method</t>
+  </si>
+  <si>
+    <t>Which of these data types is used to store command line arguments?</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>How many arguments can be passed to main()?</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>Only 1</t>
+  </si>
+  <si>
+    <t>None of the mentioned</t>
+  </si>
+  <si>
+    <t>Can command line arguments be converted into int automatically if required?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Compiler Dependent</t>
+  </si>
+  <si>
+    <t>How do we pass command line argument in Eclipse?</t>
+  </si>
+  <si>
+    <t>Arguments tab</t>
+  </si>
+  <si>
+    <t>Variable tab</t>
+  </si>
+  <si>
+    <t>Environment variable tab</t>
+  </si>
+  <si>
+    <t>Which class allows parsing of command line arguments?</t>
+  </si>
+  <si>
+    <t>Args</t>
+  </si>
+  <si>
+    <t>JCommander</t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>Which annotation is used to represent command line input and assigned to correct data type?</t>
+  </si>
+  <si>
+    <t>@Variable</t>
+  </si>
+  <si>
+    <t>@Command Line</t>
+  </si>
+  <si>
+    <t>@Parameter</t>
+  </si>
+  <si>
+    <t>Which of these data types is used by operating system to manage the Recursion in Java?</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Which of these packages contains the exception Stack Overflow in Java?</t>
+  </si>
+  <si>
+    <t>java.lang</t>
+  </si>
+  <si>
+    <t>java.util</t>
+  </si>
+  <si>
+    <t>java.io</t>
+  </si>
+  <si>
+    <t>Which of this keyword can be used in a subclass to call the constructor of superclass?</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>Which of these keywords can be used to prevent Method overriding?</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Which of these is supported by method overriding in Java?</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Which of these is not abstract?</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>AbstractList</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Which operator is having the right to left associativity in the following?</t>
+  </si>
+  <si>
+    <t>Function call</t>
+  </si>
+  <si>
+    <t>Addition and subtraction</t>
+  </si>
+  <si>
+    <t>Type cast</t>
+  </si>
+  <si>
+    <t>Which operator is having the highest precedence?</t>
+  </si>
+  <si>
+    <t>postfix</t>
+  </si>
+  <si>
+    <t>unary</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>What is this operator called ?:?</t>
+  </si>
+  <si>
+    <t>conditional</t>
+  </si>
+  <si>
+    <t>relational</t>
+  </si>
+  <si>
+    <t>casting operator</t>
+  </si>
+  <si>
+    <t>How are many sequences of statements present in c++?</t>
+  </si>
+  <si>
+    <t>The if..else statement can be replaced by which operator?</t>
+  </si>
+  <si>
+    <t>Bitwise operator</t>
+  </si>
+  <si>
+    <t>Conditional operator</t>
+  </si>
+  <si>
+    <t>Multiplicative operator</t>
+  </si>
+  <si>
+    <t>The switch statement is also called as?</t>
+  </si>
+  <si>
+    <t>choosing structure</t>
+  </si>
+  <si>
+    <t>selective structure</t>
+  </si>
+  <si>
+    <t>certain structure</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Where does the execution of the program starts?</t>
+  </si>
+  <si>
+    <t>user-defined function</t>
+  </si>
+  <si>
+    <t>main function</t>
+  </si>
+  <si>
+    <t>void function</t>
+  </si>
+  <si>
+    <t>What are mandatory parts in the function declaration?</t>
+  </si>
+  <si>
+    <t>return type, function name</t>
+  </si>
+  <si>
+    <t>return type, function name, parameters</t>
+  </si>
+  <si>
+    <t>parameters, function name</t>
+  </si>
+  <si>
+    <t>which of the following is used to terminate the function declaration?</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>How many can max number of arguments present in function in the c99 compiler?</t>
+  </si>
+  <si>
+    <t>Which is more effective while calling the functions?</t>
+  </si>
+  <si>
+    <t>call by value</t>
+  </si>
+  <si>
+    <t>call by reference</t>
+  </si>
+  <si>
+    <t>call by pointer</t>
+  </si>
+  <si>
+    <t>Which of the following is the default return value of functions in C++?</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>An inline function is expanded during ______________</t>
+  </si>
+  <si>
+    <t>compile-time</t>
+  </si>
+  <si>
+    <t>run-time</t>
+  </si>
+  <si>
+    <t>never expanded</t>
+  </si>
+  <si>
+    <t>When we define the default values for a function?</t>
+  </si>
+  <si>
+    <t>When a function is defined</t>
+  </si>
+  <si>
+    <t>When a function is declared</t>
+  </si>
+  <si>
+    <t>When a function is called</t>
+  </si>
+  <si>
+    <t>Where should default parameters appear in a function prototype?</t>
+  </si>
+  <si>
+    <t>To the rightmost side of the parameter list</t>
+  </si>
+  <si>
+    <t>To the leftmost side of the parameter list</t>
+  </si>
+  <si>
+    <t>Middle of the parameter list</t>
+  </si>
+  <si>
+    <t>Which of the following permits function overloading on c++?</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>number of arguments</t>
+  </si>
+  <si>
+    <t>type &amp; number of arguments</t>
+  </si>
+  <si>
+    <t>In which of the following we cannot overload the function?</t>
+  </si>
+  <si>
+    <t>return function</t>
+  </si>
+  <si>
+    <t>caller</t>
+  </si>
+  <si>
+    <t>called function</t>
+  </si>
+  <si>
+    <t>Function overloading is also similar to which of the following?</t>
+  </si>
+  <si>
+    <t>operator overloading</t>
+  </si>
+  <si>
+    <t>constructor overloading</t>
+  </si>
+  <si>
+    <t>destructor overloading</t>
+  </si>
+  <si>
+    <t>If the user did not supply the value, what value will it take?</t>
+  </si>
+  <si>
+    <t>default value</t>
+  </si>
+  <si>
+    <t>rise an error</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Can any function call itself?</t>
+  </si>
+  <si>
+    <t>compilation error</t>
+  </si>
+  <si>
+    <t>What is size of void in bytes?</t>
+  </si>
+  <si>
+    <t>Can a Structure contain pointer to itself?</t>
+  </si>
+  <si>
+    <t>Can a for loop contain another for loop?</t>
+  </si>
+  <si>
+    <t>How to access and edit data in data file handling using structures</t>
+  </si>
+  <si>
+    <t>read()</t>
+  </si>
+  <si>
+    <t>write()</t>
+  </si>
+  <si>
+    <t>both A and B</t>
+  </si>
+  <si>
+    <t>What is size of int data type in cpp?</t>
+  </si>
+  <si>
+    <t>4 Byte</t>
+  </si>
+  <si>
+    <t>1 Byte</t>
+  </si>
+  <si>
+    <t>Depends on Compiler</t>
+  </si>
+  <si>
+    <t>How many loops are there in C++ 98?</t>
+  </si>
+  <si>
+    <t>Can we create object of Abstract class?</t>
+  </si>
+  <si>
+    <t>non of the above</t>
+  </si>
+  <si>
+    <t>How to stop Name Mangling in C++?</t>
+  </si>
+  <si>
+    <t>It is not possible</t>
+  </si>
+  <si>
+    <t>It is possible only with C code</t>
+  </si>
+  <si>
+    <t>By using extern "C" keyword</t>
+  </si>
+  <si>
+    <t>Which of the following is Memory Leak detection tool?</t>
+  </si>
+  <si>
+    <t>GC++</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Valgrind</t>
+  </si>
+  <si>
+    <t>Exceptions are Caught at ?</t>
+  </si>
+  <si>
+    <t>Compilation Time</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t>Linking Time</t>
+  </si>
+  <si>
+    <t>What is the size of empty class?</t>
+  </si>
+  <si>
+    <t>C++ is superset of which langauge?</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>PASCAL</t>
+  </si>
+  <si>
+    <t>Where was the electricity supply first introduced in India</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Darjeeling</t>
+  </si>
+  <si>
+    <t>Which one of the following ports is the oldest port in India?</t>
+  </si>
+  <si>
+    <t>Mumbai Port</t>
+  </si>
+  <si>
+    <t>Chennai Port</t>
+  </si>
+  <si>
+    <t>Kolkata Port</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +1942,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -526,7 +2137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -641,6 +2252,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -686,12 +2312,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +2702,7 @@
     <col min="1" max="1" width="118.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,10 +2716,13 @@
         <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1091,10 +2736,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1108,10 +2756,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1125,10 +2776,13 @@
         <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1142,10 +2796,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1159,95 +2816,113 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1255,424 +2930,3697 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8.4027777777777771E-2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.06</v>
-      </c>
-      <c r="C14">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B18">
+        <v>1200</v>
+      </c>
+      <c r="C18">
+        <v>720</v>
+      </c>
+      <c r="D18">
+        <v>1800</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19">
+        <v>1090</v>
+      </c>
+      <c r="C19">
+        <v>1160</v>
+      </c>
+      <c r="D19">
+        <v>1224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B22">
+        <v>852</v>
+      </c>
+      <c r="C22">
+        <v>720</v>
+      </c>
+      <c r="D22">
+        <v>568</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
-        <v>1200</v>
-      </c>
-      <c r="C23">
-        <v>720</v>
-      </c>
-      <c r="D23">
-        <v>1800</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
-        <v>1090</v>
-      </c>
-      <c r="C24">
-        <v>1160</v>
-      </c>
-      <c r="D24">
-        <v>1224</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
       <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
-        <v>852</v>
-      </c>
-      <c r="C27">
-        <v>720</v>
-      </c>
-      <c r="D27">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>125</v>
+      </c>
+      <c r="C29">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1940</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1941</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1942</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" s="4">
+        <v>110</v>
+      </c>
+      <c r="C43" s="4">
+        <v>111</v>
+      </c>
+      <c r="D43" s="4">
+        <v>101</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1953</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1954</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1951</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B91" s="4">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4">
+        <v>102</v>
+      </c>
+      <c r="D91" s="4">
+        <v>127</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>3</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F27" t="s">
+      <c r="C109" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="C117" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="4">
+        <v>54</v>
+      </c>
+      <c r="C145" s="4">
+        <v>56</v>
+      </c>
+      <c r="D145" s="4">
+        <v>58</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="4">
+        <v>10</v>
+      </c>
+      <c r="C151" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" s="4">
+        <v>12</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B157" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D157" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B169" s="4">
+        <v>8</v>
+      </c>
+      <c r="C169" s="4">
+        <v>10</v>
+      </c>
+      <c r="D169" s="4">
+        <v>12</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2005</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B188" s="4">
         <v>25</v>
       </c>
-      <c r="D28">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>60</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.66720000000000002</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34">
-        <v>125</v>
-      </c>
-      <c r="C34">
-        <v>75</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
+      <c r="C188" s="4">
+        <v>26</v>
+      </c>
+      <c r="D188" s="4">
+        <v>27</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\BE PROJECT\Computerised-adaptive-assesments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E654866-0281-4278-BDEF-989096BECC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE55F8-3BA3-4609-93EA-F0CD1F193427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="587">
   <si>
     <t>The wages of 10 workers for a six-day week is $ 1200. What are the one day’s wages of 4 workers?</t>
   </si>
@@ -1307,18 +1308,6 @@
   </si>
   <si>
     <t>equals()</t>
-  </si>
-  <si>
-    <t>Which of the following statements are incorrect?</t>
-  </si>
-  <si>
-    <t>String is a class</t>
-  </si>
-  <si>
-    <t>Strings in java are mutable</t>
-  </si>
-  <si>
-    <t>Every string is an object of class String</t>
   </si>
   <si>
     <t>Which of these can be used to differentiate two or more methods having the same name?</t>
@@ -2312,7 +2301,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2329,9 +2318,6 @@
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2691,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2705,7 @@
         <v>49</v>
       </c>
       <c r="G1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4036,7 +4022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>426</v>
       </c>
@@ -4046,36 +4032,36 @@
       <c r="C66" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>429</v>
+      <c r="D66" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4083,65 +4069,65 @@
         <v>433</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="C69" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>442</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>443</v>
       </c>
@@ -4156,13 +4142,13 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>447</v>
       </c>
@@ -4177,13 +4163,13 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>451</v>
       </c>
@@ -4198,10 +4184,10 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4219,52 +4205,52 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="7" t="s">
         <v>464</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4275,49 +4261,49 @@
         <v>466</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>474</v>
@@ -4327,7 +4313,7 @@
         <v>50</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4345,13 +4331,13 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>479</v>
       </c>
@@ -4366,13 +4352,13 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>483</v>
       </c>
@@ -4387,13 +4373,13 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>487</v>
       </c>
@@ -4411,52 +4397,52 @@
         <v>49</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>494</v>
+      <c r="B84" s="4">
+        <v>4</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4">
+        <v>5</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="B85" s="4">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4">
-        <v>3</v>
-      </c>
-      <c r="D85" s="4">
-        <v>5</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>496</v>
       </c>
@@ -4474,31 +4460,31 @@
         <v>51</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>505</v>
       </c>
@@ -4513,118 +4499,118 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
+      </c>
+      <c r="B90" s="4">
+        <v>90</v>
+      </c>
+      <c r="C90" s="4">
+        <v>102</v>
+      </c>
+      <c r="D90" s="4">
+        <v>127</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="B91" s="4">
-        <v>90</v>
-      </c>
-      <c r="C91" s="4">
-        <v>102</v>
-      </c>
-      <c r="D91" s="4">
-        <v>127</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>523</v>
       </c>
@@ -4639,13 +4625,13 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>527</v>
       </c>
@@ -4660,13 +4646,13 @@
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>531</v>
       </c>
@@ -4681,13 +4667,13 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>535</v>
       </c>
@@ -4702,13 +4688,13 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>539</v>
       </c>
@@ -4723,13 +4709,13 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>543</v>
       </c>
@@ -4744,10 +4730,10 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4755,107 +4741,107 @@
         <v>547</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1</v>
-      </c>
-      <c r="C102" s="4">
-        <v>2</v>
-      </c>
-      <c r="D102" s="4">
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>556</v>
       </c>
@@ -4873,73 +4859,73 @@
         <v>50</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>563</v>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B107" s="4">
-        <v>1</v>
-      </c>
-      <c r="C107" s="4">
-        <v>3</v>
-      </c>
-      <c r="D107" s="4">
-        <v>2</v>
+        <v>561</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>566</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>567</v>
       </c>
@@ -4957,10 +4943,10 @@
         <v>50</v>
       </c>
       <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>571</v>
       </c>
@@ -4975,76 +4961,76 @@
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>578</v>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112" s="4">
-        <v>1</v>
-      </c>
-      <c r="D112" s="4">
-        <v>2</v>
+        <v>576</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>583</v>
       </c>
@@ -5059,1512 +5045,1512 @@
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>587</v>
+        <v>52</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>588</v>
+        <v>53</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>589</v>
+        <v>54</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>590</v>
+        <v>55</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="B144" s="4">
+        <v>54</v>
+      </c>
+      <c r="C144" s="4">
+        <v>56</v>
+      </c>
+      <c r="D144" s="4">
+        <v>58</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="4">
-        <v>54</v>
-      </c>
-      <c r="C145" s="4">
-        <v>56</v>
-      </c>
-      <c r="D145" s="4">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B150" s="4">
+        <v>10</v>
+      </c>
+      <c r="C150" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" s="4">
+        <v>12</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B151" s="4">
-        <v>10</v>
-      </c>
-      <c r="C151" s="4">
-        <v>11</v>
-      </c>
-      <c r="D151" s="4">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D156" s="6">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B157" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="C157" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D157" s="6">
-        <v>4.0000000000000002E-4</v>
+        <v>208</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="B168" s="4">
+        <v>8</v>
+      </c>
+      <c r="C168" s="4">
+        <v>10</v>
+      </c>
+      <c r="D168" s="4">
+        <v>12</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B169" s="4">
-        <v>8</v>
-      </c>
-      <c r="C169" s="4">
-        <v>10</v>
-      </c>
-      <c r="D169" s="4">
-        <v>12</v>
+        <v>249</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="B180" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C180" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D180" s="4">
+        <v>2005</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B181" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C181" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D181" s="4">
-        <v>2005</v>
+        <v>292</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="D185" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>307</v>
@@ -6574,48 +6560,27 @@
         <v>50</v>
       </c>
       <c r="G186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="B187" s="4">
+        <v>25</v>
+      </c>
+      <c r="C187" s="4">
+        <v>26</v>
+      </c>
+      <c r="D187" s="4">
+        <v>27</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B188" s="4">
-        <v>25</v>
-      </c>
-      <c r="C188" s="4">
-        <v>26</v>
-      </c>
-      <c r="D188" s="4">
-        <v>27</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G188">
         <v>2</v>
       </c>
     </row>
@@ -6623,4 +6588,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4568B158-24A7-4E73-BFC6-CEB3C3CC4EE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>